--- a/BRGMASUKCTH.xlsx
+++ b/BRGMASUKCTH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RMH\gudang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Web\GoeDang\Gudang-Frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>Nomor</t>
   </si>
@@ -187,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -327,11 +327,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -395,17 +421,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -419,122 +532,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H12" sqref="H12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,14 +906,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43" t="s">
+      <c r="A1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="50"/>
       <c r="G1" s="18" t="s">
         <v>0</v>
       </c>
@@ -900,19 +923,19 @@
       <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="19" t="s">
         <v>1</v>
       </c>
@@ -922,17 +945,17 @@
       <c r="I2" s="6">
         <v>0</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="19" t="s">
         <v>2</v>
       </c>
@@ -942,17 +965,17 @@
       <c r="I3" s="7">
         <v>40344</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="20" t="s">
         <v>3</v>
       </c>
@@ -962,75 +985,75 @@
       <c r="I4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
@@ -1044,66 +1067,66 @@
       <c r="I9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="55" t="s">
+      <c r="C10" s="41"/>
+      <c r="D10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55" t="s">
+      <c r="G10" s="31"/>
+      <c r="H10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="55"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>1</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="71"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="23">
         <v>1234.1456000000001</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="30" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="23">
@@ -1112,72 +1135,81 @@
       <c r="G12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="38"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+      <c r="I12" s="72"/>
+    </row>
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>1</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="70"/>
+      <c r="D13" s="23">
+        <v>1234.1456000000001</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="23">
+        <v>80</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="72"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="41" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="33" t="s">
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="39" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
+      <c r="G15" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="47"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="53"/>
+      <c r="A16" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="39"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -1185,15 +1217,15 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="53"/>
+      <c r="A17" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="39"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -1201,15 +1233,15 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="53"/>
+      <c r="A18" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="39"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -1217,81 +1249,99 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="39" t="s">
+      <c r="B20" s="39"/>
+      <c r="C20" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="39" t="s">
+      <c r="D20" s="47"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="s">
+      <c r="H20" s="47"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="31" t="s">
+      <c r="B21" s="46"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="33">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J1:L11"/>
+    <mergeCell ref="J14:L21"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="A1:B4"/>
-    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B10:C11"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="C1:F4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J1:L11"/>
-    <mergeCell ref="J13:L20"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -1315,35 +1365,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="28">
+      <c r="A1" s="27">
         <v>1</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="28">
+      <c r="C1" s="66"/>
+      <c r="D1" s="27">
         <v>1234.1456000000001</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="28">
+      <c r="F1" s="27">
         <v>80</v>
       </c>
       <c r="G1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="68"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="26">
@@ -1355,13 +1405,13 @@
       <c r="E3" s="26">
         <v>80</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="29"/>
+      <c r="H3" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/BRGMASUKCTH.xlsx
+++ b/BRGMASUKCTH.xlsx
@@ -407,6 +407,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -419,122 +515,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,7 +868,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="G13" sqref="G13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,14 +883,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43" t="s">
+      <c r="A1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="53"/>
       <c r="G1" s="18" t="s">
         <v>0</v>
       </c>
@@ -900,19 +900,19 @@
       <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="54"/>
       <c r="G2" s="19" t="s">
         <v>1</v>
       </c>
@@ -922,17 +922,17 @@
       <c r="I2" s="6">
         <v>0</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="19" t="s">
         <v>2</v>
       </c>
@@ -942,17 +942,17 @@
       <c r="I3" s="7">
         <v>40344</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="55"/>
       <c r="G4" s="20" t="s">
         <v>3</v>
       </c>
@@ -962,75 +962,75 @@
       <c r="I4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
@@ -1044,62 +1044,62 @@
       <c r="I9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="55" t="s">
+      <c r="C10" s="43"/>
+      <c r="D10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55" t="s">
+      <c r="G10" s="31"/>
+      <c r="H10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="55"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>1</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="71"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="23">
         <v>1234.1456000000001</v>
       </c>
@@ -1112,56 +1112,56 @@
       <c r="G12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="38"/>
+      <c r="I12" s="68"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="60"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="33" t="s">
+      <c r="H13" s="57"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="39" t="s">
+      <c r="B14" s="52"/>
+      <c r="C14" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -1169,15 +1169,15 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -1185,15 +1185,15 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -1201,15 +1201,15 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="53"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -1217,50 +1217,65 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="39" t="s">
+      <c r="B19" s="39"/>
+      <c r="C19" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="39"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="16"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="63"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J1:L11"/>
+    <mergeCell ref="J13:L20"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="A1:B4"/>
     <mergeCell ref="A17:B17"/>
@@ -1271,27 +1286,12 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="C1:F4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J1:L11"/>
-    <mergeCell ref="J13:L20"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -1318,10 +1318,10 @@
       <c r="A1" s="28">
         <v>1</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="73"/>
+      <c r="C1" s="71"/>
       <c r="D1" s="28">
         <v>1234.1456000000001</v>
       </c>
@@ -1334,10 +1334,10 @@
       <c r="G1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
